--- a/data/trans_orig/P14B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542E6622-DA51-4B72-87E6-1A79E7BD6DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2FE58F-C597-4FD3-BAB7-8E79455803CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4473C81B-9E77-44B1-B26E-9B4044733882}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5AF670B-D7C3-4506-9A4F-2260E5C39A10}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>65,34%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>84,41%</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>72,38%</t>
   </si>
   <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>34,66%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,10 +138,10 @@
     <t>80,41%</t>
   </si>
   <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>49,3%</t>
@@ -156,19 +156,19 @@
     <t>71,53%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>50,7%</t>
@@ -183,10 +183,10 @@
     <t>28,47%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -237,55 +237,55 @@
     <t>69,77%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F8FABD-342C-4187-99B0-321010EEC8BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEFBF93-3068-4D10-AA6A-83E4307D5A6F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB335639-DC35-43F6-B587-BC89FCC159E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB416BA-BED4-49CD-A605-EDF0A50A2AA4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B11-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2FE58F-C597-4FD3-BAB7-8E79455803CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA72BB6A-9ED1-4C78-A904-0870319B114E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5AF670B-D7C3-4506-9A4F-2260E5C39A10}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA12A4E0-08F8-44B0-B140-C686FC27E8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>65,34%</t>
   </si>
   <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>84,41%</t>
   </si>
   <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>72,38%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>34,66%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>80,41%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>49,3%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
   </si>
   <si>
     <t>50,7%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -210,10 +210,10 @@
     <t>56,8%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
   <si>
     <t>38,27%</t>
@@ -228,166 +228,166 @@
     <t>43,2%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>69,77%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo infarto de miocardio le limita en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población cuyo infarto de miocardio le limita en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>73,66%</t>
   </si>
   <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>78,47%</t>
+    <t>78,83%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>21,53%</t>
+    <t>21,17%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
   <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>41,91%</t>
+    <t>46,04%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>58,09%</t>
+    <t>53,96%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
   </si>
   <si>
     <t>46,58%</t>
@@ -402,7 +402,7 @@
     <t>16,79%</t>
   </si>
   <si>
-    <t>75,6%</t>
+    <t>61,33%</t>
   </si>
   <si>
     <t>53,42%</t>
@@ -414,61 +414,61 @@
     <t>83,21%</t>
   </si>
   <si>
-    <t>24,4%</t>
+    <t>38,67%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>75,29%</t>
   </si>
   <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEFBF93-3068-4D10-AA6A-83E4307D5A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037BE34C-B197-4482-A136-CD71A1BF83AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB416BA-BED4-49CD-A605-EDF0A50A2AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE156110-F382-458A-A9E7-66AA1F5D3055}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
